--- a/week.xlsx
+++ b/week.xlsx
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.051296296296298</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.051296296296298</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.051296296296298</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.051296296296298</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1.051296296296298</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9035185185185186</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>

--- a/week.xlsx
+++ b/week.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,13 +444,21 @@
           <t>k</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>chekBox</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +466,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +477,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +488,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +499,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1.04</v>
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -492,6 +512,9 @@
       <c r="B7" t="n">
         <v>0.92</v>
       </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -499,6 +522,9 @@
       </c>
       <c r="B8" t="n">
         <v>0.88</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
